--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>593668.6649846404</v>
+        <v>589144.2563546402</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30091190.31627426</v>
+        <v>30091190.31627425</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7431985.477503139</v>
+        <v>7431985.477503142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5156223.369160244</v>
+        <v>5156223.369160245</v>
       </c>
     </row>
     <row r="11">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.5704116432363168</v>
       </c>
       <c r="D8" t="n">
         <v>0.7413715737419651</v>
@@ -1144,7 +1144,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="G8" t="n">
         <v>0.08258843891560583</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5704116432363168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.6530000821519226</v>
       </c>
       <c r="V9" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6530000821519227</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.6530000821519226</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.7413715737419651</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>203.3889281310181</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>373.2022709824543</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>72.4122885972843</v>
@@ -1578,13 +1578,13 @@
         <v>7.157826386379099</v>
       </c>
       <c r="S13" t="n">
-        <v>87.38544692428015</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T13" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3347951985322</v>
+        <v>119.0702628012552</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>196.1822596597177</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T14" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>264.277453204331</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T15" t="n">
         <v>136.2471199530304</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>74.04939089122112</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>134.5654687717742</v>
       </c>
       <c r="I16" t="n">
-        <v>72.4122885972843</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1587802408334</v>
+        <v>8.429352591731162</v>
       </c>
       <c r="T16" t="n">
         <v>237.16093036331</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>88.59521378426007</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>24.73439744120842</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T18" t="n">
         <v>136.2471199530304</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>91.12087279979747</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>87.26823990853541</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.16093036331</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>214.7499360378874</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U20" t="n">
         <v>255.6150406962232</v>
@@ -2143,13 +2143,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>60.21430368915644</v>
       </c>
     </row>
     <row r="21">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>77.13173901482214</v>
+        <v>205.271956349068</v>
       </c>
       <c r="U22" t="n">
         <v>277.3347951985322</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>149.8856899063566</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>255.6150406962232</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>34.94718689250848</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.61026644396221</v>
       </c>
       <c r="G25" t="n">
-        <v>63.55005467226545</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.157826386379085</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.1587802408334</v>
@@ -2532,7 +2532,7 @@
         <v>237.16093036331</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2560,13 +2560,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>331.2358724718114</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>156.9722797734583</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.157826386379085</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.1587802408334</v>
       </c>
       <c r="T28" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3347951985322</v>
+        <v>174.9221925486482</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>63.55005467226498</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>183.2534930769702</v>
       </c>
       <c r="V29" t="n">
-        <v>93.66966733330582</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>155.3482397179826</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.157826386379085</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1587802408334</v>
@@ -3006,7 +3006,7 @@
         <v>237.16093036331</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>27.27513404071961</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>349.3591839152569</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.4427332730303</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.157826386379085</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.7686216981947</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>4.522259408491684</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3277,13 +3277,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>65.99312530326306</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>145.5447000665791</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>58.79695632652504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>7.157826386379085</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.2563325914196</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347951985322</v>
+        <v>245.8908944698091</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3416766198384</v>
+        <v>139.1964825112674</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>91.12740183138423</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>135.2677928565846</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.157826386379085</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.16093036331</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>123.0832715107453</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>306.2131645018774</v>
       </c>
       <c r="D41" t="n">
-        <v>81.32153733236169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.79695632652503</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U41" t="n">
         <v>255.6150406962232</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U43" t="n">
-        <v>134.6021790764358</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>59.43021851749129</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>349.3591839152573</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>342.8508184457666</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.79695632652503</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>17.60600255645915</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4146,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H46" t="n">
         <v>134.5654687717742</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.157826386379078</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.16093036331</v>
@@ -4194,16 +4194,16 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>188.2093939309</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2.96548629496786</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.38931291796148</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.640452742464545</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.640452742464545</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.8915925669676106</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1427323914706762</v>
       </c>
       <c r="F8" t="n">
         <v>0.1427323914706762</v>
@@ -4813,19 +4813,19 @@
         <v>0.05930972589935721</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7932675839039026</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="P8" t="n">
-        <v>1.497570578958769</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.231528436963315</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="R8" t="n">
         <v>2.96548629496786</v>
@@ -4849,7 +4849,7 @@
         <v>2.96548629496786</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.38931291796148</v>
+        <v>2.96548629496786</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="H9" t="n">
         <v>0.05930972589935721</v>
@@ -4895,7 +4895,7 @@
         <v>1.527225441908448</v>
       </c>
       <c r="N9" t="n">
-        <v>2.231528436963315</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="O9" t="n">
         <v>2.96548629496786</v>
@@ -4913,22 +4913,22 @@
         <v>2.96548629496786</v>
       </c>
       <c r="T9" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="U9" t="n">
-        <v>2.216626119470926</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="V9" t="n">
-        <v>1.467765943973991</v>
+        <v>1.557030076893226</v>
       </c>
       <c r="W9" t="n">
-        <v>1.467765943973991</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="X9" t="n">
         <v>0.8081699013962916</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.557030076893226</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="C10" t="n">
         <v>1.557030076893226</v>
       </c>
       <c r="D10" t="n">
-        <v>1.557030076893226</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="E10" t="n">
-        <v>1.557030076893226</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8081699013962916</v>
+        <v>0.05930972589935721</v>
       </c>
       <c r="G10" t="n">
         <v>0.05930972589935721</v>
@@ -4962,25 +4962,25 @@
         <v>0.05930972589935721</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7636127209542241</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7932675839039026</v>
+        <v>0.7636127209542241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7932675839039026</v>
+        <v>1.497570578958769</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7932675839039026</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="O10" t="n">
-        <v>1.527225441908448</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="P10" t="n">
-        <v>2.231528436963315</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Q10" t="n">
         <v>2.96548629496786</v>
@@ -4992,22 +4992,22 @@
         <v>2.96548629496786</v>
       </c>
       <c r="T10" t="n">
+        <v>2.96548629496786</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.96548629496786</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.305890252390161</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>2.305890252390161</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.557030076893226</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.557030076893226</v>
-      </c>
       <c r="X10" t="n">
-        <v>1.557030076893226</v>
+        <v>2.305890252390161</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.557030076893226</v>
+        <v>2.305890252390161</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1075.707724112028</v>
+        <v>893.9470043896529</v>
       </c>
       <c r="C11" t="n">
-        <v>1075.707724112028</v>
+        <v>467.046274402953</v>
       </c>
       <c r="D11" t="n">
-        <v>1075.707724112028</v>
+        <v>467.046274402953</v>
       </c>
       <c r="E11" t="n">
-        <v>649.7307842598851</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F11" t="n">
-        <v>649.7307842598851</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G11" t="n">
-        <v>247.3654543408564</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H11" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I11" t="n">
-        <v>82.29775374785459</v>
+        <v>82.29775374785504</v>
       </c>
       <c r="J11" t="n">
-        <v>217.3564621562496</v>
+        <v>217.35646215625</v>
       </c>
       <c r="K11" t="n">
-        <v>428.0194649169798</v>
+        <v>428.0194649169803</v>
       </c>
       <c r="L11" t="n">
-        <v>695.3620842405351</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M11" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306626</v>
       </c>
       <c r="N11" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O11" t="n">
-        <v>1595.158288098557</v>
+        <v>1595.158288098558</v>
       </c>
       <c r="P11" t="n">
         <v>1836.135757884009</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.271730617951</v>
+        <v>2009.271730617952</v>
       </c>
       <c r="R11" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S11" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T11" t="n">
-        <v>1883.819072643933</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U11" t="n">
-        <v>1883.819072643933</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V11" t="n">
-        <v>1883.819072643933</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W11" t="n">
-        <v>1487.42772294428</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X11" t="n">
-        <v>1075.707724112028</v>
+        <v>1719.132638726292</v>
       </c>
       <c r="Y11" t="n">
-        <v>1075.707724112028</v>
+        <v>1313.795368681183</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G12" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H12" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I12" t="n">
         <v>61.54715157330344</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.3498504461803</v>
+        <v>788.4251345150952</v>
       </c>
       <c r="C13" t="n">
-        <v>752.3772873250963</v>
+        <v>616.4525713940112</v>
       </c>
       <c r="D13" t="n">
-        <v>589.060514451867</v>
+        <v>453.1357985207819</v>
       </c>
       <c r="E13" t="n">
-        <v>422.8523086047205</v>
+        <v>286.9275926736355</v>
       </c>
       <c r="F13" t="n">
-        <v>250.990534379281</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="G13" t="n">
-        <v>250.990534379281</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H13" t="n">
         <v>115.0658184481959</v>
       </c>
       <c r="I13" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J13" t="n">
-        <v>82.84021611732983</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K13" t="n">
-        <v>410.1822679736395</v>
+        <v>488.1039846218603</v>
       </c>
       <c r="L13" t="n">
-        <v>893.8793769001281</v>
+        <v>971.8010935483489</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.665272730499</v>
+        <v>1085.472031887241</v>
       </c>
       <c r="N13" t="n">
-        <v>1524.910218182448</v>
+        <v>1197.71697733919</v>
       </c>
       <c r="O13" t="n">
-        <v>1965.026432567754</v>
+        <v>1675.794799189028</v>
       </c>
       <c r="P13" t="n">
         <v>2047.817440812583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R13" t="n">
         <v>2088.874501954651</v>
       </c>
       <c r="S13" t="n">
-        <v>2000.606373748307</v>
+        <v>1934.168663327547</v>
       </c>
       <c r="T13" t="n">
-        <v>1761.049878431832</v>
+        <v>1934.168663327547</v>
       </c>
       <c r="U13" t="n">
-        <v>1480.913721665638</v>
+        <v>1813.895670599006</v>
       </c>
       <c r="V13" t="n">
-        <v>1199.202254273667</v>
+        <v>1532.184203207035</v>
       </c>
       <c r="W13" t="n">
-        <v>924.3498504461803</v>
+        <v>1257.331799379548</v>
       </c>
       <c r="X13" t="n">
-        <v>924.3498504461803</v>
+        <v>1014.767902825353</v>
       </c>
       <c r="Y13" t="n">
-        <v>924.3498504461803</v>
+        <v>788.4251345150952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.9470043896529</v>
+        <v>665.2101730491325</v>
       </c>
       <c r="C14" t="n">
-        <v>467.046274402953</v>
+        <v>665.2101730491325</v>
       </c>
       <c r="D14" t="n">
-        <v>467.046274402953</v>
+        <v>665.2101730491325</v>
       </c>
       <c r="E14" t="n">
-        <v>467.046274402953</v>
+        <v>665.2101730491325</v>
       </c>
       <c r="F14" t="n">
-        <v>41.92209259235321</v>
+        <v>240.0859912385328</v>
       </c>
       <c r="G14" t="n">
         <v>41.92209259235321</v>
@@ -5275,16 +5275,16 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I14" t="n">
-        <v>82.29775374785436</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J14" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K14" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169798</v>
       </c>
       <c r="L14" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405352</v>
       </c>
       <c r="M14" t="n">
         <v>997.9785432306624</v>
@@ -5299,7 +5299,7 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R14" t="n">
         <v>2096.104629617661</v>
@@ -5311,19 +5311,19 @@
         <v>1824.428207667646</v>
       </c>
       <c r="U14" t="n">
-        <v>1566.23119686338</v>
+        <v>1824.428207667646</v>
       </c>
       <c r="V14" t="n">
-        <v>1566.23119686338</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="W14" t="n">
-        <v>1299.284274434763</v>
+        <v>1070.547443094242</v>
       </c>
       <c r="X14" t="n">
-        <v>1299.284274434763</v>
+        <v>1070.547443094242</v>
       </c>
       <c r="Y14" t="n">
-        <v>893.9470043896529</v>
+        <v>665.2101730491325</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I15" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J15" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K15" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062476</v>
       </c>
       <c r="L15" t="n">
-        <v>486.3299477746343</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M15" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N15" t="n">
-        <v>973.7789094713426</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O15" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P15" t="n">
-        <v>1373.188671129674</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q15" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R15" t="n">
         <v>1815.413022142049</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.857878988454</v>
+        <v>594.8248717258045</v>
       </c>
       <c r="C16" t="n">
-        <v>663.857878988454</v>
+        <v>422.8523086047205</v>
       </c>
       <c r="D16" t="n">
-        <v>589.060514451867</v>
+        <v>422.8523086047205</v>
       </c>
       <c r="E16" t="n">
         <v>422.8523086047205</v>
@@ -5439,19 +5439,19 @@
         <v>160.7619327655507</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8213755078383</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L16" t="n">
-        <v>724.518484434327</v>
+        <v>971.8010935483491</v>
       </c>
       <c r="M16" t="n">
-        <v>1243.304380264698</v>
+        <v>1490.58698937872</v>
       </c>
       <c r="N16" t="n">
-        <v>1355.549325716647</v>
+        <v>1602.831934830669</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.627147566485</v>
+        <v>1703.207432377303</v>
       </c>
       <c r="P16" t="n">
         <v>2047.817440812583</v>
@@ -5460,28 +5460,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R16" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S16" t="n">
-        <v>1934.168663327547</v>
+        <v>2087.590132050255</v>
       </c>
       <c r="T16" t="n">
-        <v>1694.612168011072</v>
+        <v>1848.03363673378</v>
       </c>
       <c r="U16" t="n">
-        <v>1414.476011244878</v>
+        <v>1567.897479967586</v>
       </c>
       <c r="V16" t="n">
-        <v>1132.764543852907</v>
+        <v>1286.186012575615</v>
       </c>
       <c r="W16" t="n">
-        <v>1132.764543852907</v>
+        <v>1011.333608748128</v>
       </c>
       <c r="X16" t="n">
-        <v>890.2006472987119</v>
+        <v>1011.333608748128</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.857878988454</v>
+        <v>784.9908404378702</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1317.239625204653</v>
+        <v>1684.384630785408</v>
       </c>
       <c r="C17" t="n">
-        <v>890.3388952179528</v>
+        <v>1257.483900798708</v>
       </c>
       <c r="D17" t="n">
-        <v>467.046274402953</v>
+        <v>834.1912799837082</v>
       </c>
       <c r="E17" t="n">
-        <v>467.046274402953</v>
+        <v>744.7011650501122</v>
       </c>
       <c r="F17" t="n">
-        <v>41.92209259235321</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="G17" t="n">
-        <v>41.92209259235321</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="H17" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I17" t="n">
-        <v>82.29775374785436</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J17" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562491</v>
       </c>
       <c r="K17" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169797</v>
       </c>
       <c r="L17" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M17" t="n">
         <v>997.9785432306624</v>
@@ -5536,7 +5536,7 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q17" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R17" t="n">
         <v>2096.104629617661</v>
@@ -5548,19 +5548,19 @@
         <v>2096.104629617661</v>
       </c>
       <c r="U17" t="n">
-        <v>2071.120389778056</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V17" t="n">
-        <v>1713.630974904306</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W17" t="n">
-        <v>1317.239625204653</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X17" t="n">
-        <v>1317.239625204653</v>
+        <v>1684.384630785408</v>
       </c>
       <c r="Y17" t="n">
-        <v>1317.239625204653</v>
+        <v>1684.384630785408</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I18" t="n">
-        <v>73.94489282173967</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J18" t="n">
-        <v>151.3270341744889</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K18" t="n">
-        <v>296.285598010272</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L18" t="n">
-        <v>498.7276890230705</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M18" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N18" t="n">
-        <v>1265.576683836779</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R18" t="n">
         <v>1815.413022142049</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.5693717151619</v>
+        <v>458.9001557947195</v>
       </c>
       <c r="C19" t="n">
-        <v>459.5968085940779</v>
+        <v>286.9275926736355</v>
       </c>
       <c r="D19" t="n">
-        <v>296.2800357208486</v>
+        <v>286.9275926736355</v>
       </c>
       <c r="E19" t="n">
-        <v>130.0718298737021</v>
+        <v>286.9275926736355</v>
       </c>
       <c r="F19" t="n">
-        <v>130.0718298737021</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0718298737021</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H19" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I19" t="n">
         <v>41.92209259235321</v>
@@ -5676,49 +5676,49 @@
         <v>160.7619327655507</v>
       </c>
       <c r="K19" t="n">
-        <v>240.8213755078383</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L19" t="n">
-        <v>398.8701021339891</v>
+        <v>971.8010935483491</v>
       </c>
       <c r="M19" t="n">
-        <v>512.5410404728811</v>
+        <v>1085.472031887241</v>
       </c>
       <c r="N19" t="n">
-        <v>1022.818908766711</v>
+        <v>1197.716977339191</v>
       </c>
       <c r="O19" t="n">
-        <v>1500.896730616548</v>
+        <v>1675.794799189028</v>
       </c>
       <c r="P19" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q19" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R19" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S19" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T19" t="n">
-        <v>1694.612168011072</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U19" t="n">
-        <v>1414.476011244878</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V19" t="n">
-        <v>1132.764543852907</v>
+        <v>1294.70051014302</v>
       </c>
       <c r="W19" t="n">
-        <v>857.9121400254198</v>
+        <v>1019.848106315533</v>
       </c>
       <c r="X19" t="n">
-        <v>857.9121400254198</v>
+        <v>777.2842097613385</v>
       </c>
       <c r="Y19" t="n">
-        <v>631.5693717151619</v>
+        <v>550.9414414510805</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>258.8412199033506</v>
+        <v>1147.919253010683</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8412199033506</v>
+        <v>1147.919253010683</v>
       </c>
       <c r="D20" t="n">
-        <v>258.8412199033506</v>
+        <v>1147.919253010683</v>
       </c>
       <c r="E20" t="n">
-        <v>258.8412199033506</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="F20" t="n">
-        <v>258.8412199033506</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="G20" t="n">
-        <v>41.9220925923532</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="H20" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I20" t="n">
-        <v>82.29775374785453</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J20" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K20" t="n">
-        <v>428.0194649169802</v>
+        <v>428.0194649169798</v>
       </c>
       <c r="L20" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405352</v>
       </c>
       <c r="M20" t="n">
         <v>997.9785432306624</v>
@@ -5776,28 +5776,28 @@
         <v>2009.271730617951</v>
       </c>
       <c r="R20" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S20" t="n">
-        <v>2096.10462961766</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T20" t="n">
-        <v>2096.10462961766</v>
+        <v>1824.428207667646</v>
       </c>
       <c r="U20" t="n">
-        <v>1837.907618813394</v>
+        <v>1566.23119686338</v>
       </c>
       <c r="V20" t="n">
-        <v>1480.418203939643</v>
+        <v>1208.741781989629</v>
       </c>
       <c r="W20" t="n">
-        <v>1084.02685423999</v>
+        <v>1208.741781989629</v>
       </c>
       <c r="X20" t="n">
-        <v>1084.02685423999</v>
+        <v>1208.741781989629</v>
       </c>
       <c r="Y20" t="n">
-        <v>678.6895841948807</v>
+        <v>1147.919253010683</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G21" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H21" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I21" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J21" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K21" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062476</v>
       </c>
       <c r="L21" t="n">
-        <v>672.6722218551643</v>
+        <v>509.7872536190463</v>
       </c>
       <c r="M21" t="n">
-        <v>912.0580845685354</v>
+        <v>749.1731163324174</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.121183551872</v>
+        <v>997.2362153157546</v>
       </c>
       <c r="O21" t="n">
-        <v>1383.439739341724</v>
+        <v>1220.554771105606</v>
       </c>
       <c r="P21" t="n">
-        <v>1559.530945210204</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q21" t="n">
         <v>1669.131383560658</v>
@@ -5886,52 +5886,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>515.1909929027609</v>
+        <v>385.7564299388767</v>
       </c>
       <c r="C22" t="n">
-        <v>343.2184297816768</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="D22" t="n">
-        <v>343.2184297816768</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="E22" t="n">
-        <v>343.2184297816768</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F22" t="n">
-        <v>343.2184297816768</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G22" t="n">
-        <v>177.8468085234383</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H22" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I22" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J22" t="n">
-        <v>82.84021611732985</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K22" t="n">
-        <v>410.1822679736395</v>
+        <v>488.1039846218604</v>
       </c>
       <c r="L22" t="n">
-        <v>517.4904833089631</v>
+        <v>971.8010935483491</v>
       </c>
       <c r="M22" t="n">
-        <v>890.2433647760838</v>
+        <v>1490.58698937872</v>
       </c>
       <c r="N22" t="n">
-        <v>1400.521233069913</v>
+        <v>1864.650935021121</v>
       </c>
       <c r="O22" t="n">
-        <v>1500.896730616547</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P22" t="n">
-        <v>1896.443943434683</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R22" t="n">
         <v>2088.874501954651</v>
@@ -5940,22 +5940,22 @@
         <v>2088.874501954651</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.963654464932</v>
+        <v>1881.529091501047</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.827497698737</v>
+        <v>1601.392934734853</v>
       </c>
       <c r="V22" t="n">
-        <v>1449.116030306766</v>
+        <v>1319.681467342882</v>
       </c>
       <c r="W22" t="n">
-        <v>1174.263626479279</v>
+        <v>1044.829063515395</v>
       </c>
       <c r="X22" t="n">
-        <v>931.6997299250845</v>
+        <v>802.2651669612003</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.3569616148266</v>
+        <v>575.9223986509423</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>619.2987192185932</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C23" t="n">
-        <v>619.2987192185932</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D23" t="n">
-        <v>619.2987192185932</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E23" t="n">
-        <v>193.3217793664508</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F23" t="n">
         <v>41.92209259235321</v>
@@ -6025,16 +6025,16 @@
         <v>1778.516753837107</v>
       </c>
       <c r="V23" t="n">
-        <v>1421.027338963356</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="W23" t="n">
-        <v>1024.635989263703</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="X23" t="n">
-        <v>1024.635989263703</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="Y23" t="n">
-        <v>619.2987192185932</v>
+        <v>1743.216565056795</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I24" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J24" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K24" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062476</v>
       </c>
       <c r="L24" t="n">
-        <v>486.3299477746344</v>
+        <v>509.7872536190463</v>
       </c>
       <c r="M24" t="n">
-        <v>725.7158104880056</v>
+        <v>749.1731163324174</v>
       </c>
       <c r="N24" t="n">
-        <v>1244.501706318376</v>
+        <v>997.2362153157546</v>
       </c>
       <c r="O24" t="n">
-        <v>1467.820262108228</v>
+        <v>1220.554771105606</v>
       </c>
       <c r="P24" t="n">
-        <v>1643.911467976708</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R24" t="n">
         <v>1815.413022142049</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.4034030030962</v>
+        <v>486.2057908781046</v>
       </c>
       <c r="C25" t="n">
-        <v>269.4308398820123</v>
+        <v>314.2332277570206</v>
       </c>
       <c r="D25" t="n">
-        <v>106.114067008783</v>
+        <v>314.2332277570206</v>
       </c>
       <c r="E25" t="n">
-        <v>106.114067008783</v>
+        <v>314.2332277570206</v>
       </c>
       <c r="F25" t="n">
-        <v>106.114067008783</v>
+        <v>250.990534379281</v>
       </c>
       <c r="G25" t="n">
-        <v>41.92209259235321</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H25" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I25" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="J25" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K25" t="n">
-        <v>415.5227509882889</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L25" t="n">
-        <v>522.8309663236125</v>
+        <v>646.5967677861062</v>
       </c>
       <c r="M25" t="n">
-        <v>1041.616862153983</v>
+        <v>976.6707424240876</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.894730447813</v>
+        <v>1486.948610717917</v>
       </c>
       <c r="O25" t="n">
-        <v>1652.270227994447</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P25" t="n">
         <v>2047.817440812583</v>
@@ -6171,28 +6171,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S25" t="n">
-        <v>1934.168663327547</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T25" t="n">
-        <v>1694.612168011072</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="U25" t="n">
-        <v>1414.476011244878</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="V25" t="n">
-        <v>1132.764543852907</v>
+        <v>1420.13082828211</v>
       </c>
       <c r="W25" t="n">
-        <v>857.9121400254198</v>
+        <v>1145.278424454623</v>
       </c>
       <c r="X25" t="n">
-        <v>857.9121400254198</v>
+        <v>902.7145279004282</v>
       </c>
       <c r="Y25" t="n">
-        <v>631.5693717151619</v>
+        <v>676.3717595901702</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>803.4045119445192</v>
+        <v>1319.923944241795</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5037819578193</v>
+        <v>893.0232142550954</v>
       </c>
       <c r="D26" t="n">
-        <v>41.9220925923532</v>
+        <v>893.0232142550954</v>
       </c>
       <c r="E26" t="n">
-        <v>41.9220925923532</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F26" t="n">
         <v>41.9220925923532</v>
@@ -6223,16 +6223,16 @@
         <v>41.9220925923532</v>
       </c>
       <c r="I26" t="n">
-        <v>82.2977537478547</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J26" t="n">
-        <v>217.3564621562498</v>
+        <v>217.3564621562492</v>
       </c>
       <c r="K26" t="n">
-        <v>428.0194649169802</v>
+        <v>428.0194649169796</v>
       </c>
       <c r="L26" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M26" t="n">
         <v>997.9785432306624</v>
@@ -6253,25 +6253,25 @@
         <v>2096.10462961766</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.713764641372</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="T26" t="n">
-        <v>1824.428207667645</v>
+        <v>1883.819072643933</v>
       </c>
       <c r="U26" t="n">
-        <v>1566.231196863379</v>
+        <v>1883.819072643933</v>
       </c>
       <c r="V26" t="n">
-        <v>1208.741781989629</v>
+        <v>1883.819072643933</v>
       </c>
       <c r="W26" t="n">
-        <v>1208.741781989629</v>
+        <v>1725.261214286905</v>
       </c>
       <c r="X26" t="n">
-        <v>1208.741781989629</v>
+        <v>1725.261214286905</v>
       </c>
       <c r="Y26" t="n">
-        <v>803.4045119445192</v>
+        <v>1319.923944241795</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>41.9220925923532</v>
       </c>
       <c r="I27" t="n">
-        <v>85.00445741771529</v>
+        <v>61.54715157330344</v>
       </c>
       <c r="J27" t="n">
         <v>325.2715670065825</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.2114285866665</v>
+        <v>549.073202812106</v>
       </c>
       <c r="C28" t="n">
-        <v>205.2388654655825</v>
+        <v>377.1006396910221</v>
       </c>
       <c r="D28" t="n">
-        <v>41.9220925923532</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="E28" t="n">
-        <v>41.9220925923532</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F28" t="n">
         <v>41.9220925923532</v>
@@ -6384,52 +6384,52 @@
         <v>41.9220925923532</v>
       </c>
       <c r="J28" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K28" t="n">
-        <v>291.5618867986648</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L28" t="n">
-        <v>398.8701021339884</v>
+        <v>646.5967677861062</v>
       </c>
       <c r="M28" t="n">
-        <v>512.5410404728805</v>
+        <v>1165.382663616477</v>
       </c>
       <c r="N28" t="n">
-        <v>1022.81890876671</v>
+        <v>1675.660531910307</v>
       </c>
       <c r="O28" t="n">
-        <v>1500.896730616547</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P28" t="n">
-        <v>1896.443943434683</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q28" t="n">
         <v>2096.10462961766</v>
       </c>
       <c r="R28" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="S28" t="n">
-        <v>1934.168663327546</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T28" t="n">
-        <v>1694.612168011072</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="U28" t="n">
-        <v>1414.476011244878</v>
+        <v>1764.709707608083</v>
       </c>
       <c r="V28" t="n">
-        <v>1132.764543852906</v>
+        <v>1482.998240216112</v>
       </c>
       <c r="W28" t="n">
-        <v>857.9121400254194</v>
+        <v>1208.145836388625</v>
       </c>
       <c r="X28" t="n">
-        <v>793.7201656089901</v>
+        <v>965.5819398344297</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.3773972987321</v>
+        <v>739.2391715241718</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1318.092383246195</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="C29" t="n">
-        <v>891.1916532594954</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="D29" t="n">
-        <v>467.8990324444957</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="E29" t="n">
-        <v>41.92209259235321</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="F29" t="n">
-        <v>41.92209259235321</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="G29" t="n">
-        <v>41.92209259235321</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="H29" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I29" t="n">
-        <v>82.2977537478547</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J29" t="n">
-        <v>217.3564621562498</v>
+        <v>217.3564621562493</v>
       </c>
       <c r="K29" t="n">
-        <v>428.0194649169802</v>
+        <v>428.0194649169798</v>
       </c>
       <c r="L29" t="n">
-        <v>695.3620842405355</v>
+        <v>695.3620842405352</v>
       </c>
       <c r="M29" t="n">
-        <v>997.9785432306628</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N29" t="n">
         <v>1306.241396764578</v>
@@ -6490,25 +6490,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T29" t="n">
-        <v>1824.428207667646</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U29" t="n">
-        <v>1824.428207667646</v>
+        <v>1911.000091156074</v>
       </c>
       <c r="V29" t="n">
-        <v>1729.812382078448</v>
+        <v>1553.510676282324</v>
       </c>
       <c r="W29" t="n">
-        <v>1729.812382078448</v>
+        <v>1553.510676282324</v>
       </c>
       <c r="X29" t="n">
-        <v>1318.092383246195</v>
+        <v>1141.790677450071</v>
       </c>
       <c r="Y29" t="n">
-        <v>1318.092383246195</v>
+        <v>1141.790677450071</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I30" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J30" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K30" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L30" t="n">
-        <v>486.3299477746344</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M30" t="n">
-        <v>725.7158104880056</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N30" t="n">
-        <v>973.7789094713428</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O30" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P30" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R30" t="n">
         <v>1815.413022142049</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.8395064489013</v>
+        <v>684.9979187431911</v>
       </c>
       <c r="C31" t="n">
-        <v>41.92209259235321</v>
+        <v>513.0253556221071</v>
       </c>
       <c r="D31" t="n">
-        <v>41.92209259235321</v>
+        <v>349.7085827488778</v>
       </c>
       <c r="E31" t="n">
-        <v>41.92209259235321</v>
+        <v>349.7085827488778</v>
       </c>
       <c r="F31" t="n">
-        <v>41.92209259235321</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="G31" t="n">
-        <v>41.92209259235321</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H31" t="n">
         <v>41.92209259235321</v>
@@ -6621,52 +6621,52 @@
         <v>41.92209259235321</v>
       </c>
       <c r="J31" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K31" t="n">
-        <v>240.8213755078383</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L31" t="n">
-        <v>348.129590843162</v>
+        <v>550.2435995118881</v>
       </c>
       <c r="M31" t="n">
-        <v>866.915486673533</v>
+        <v>663.9145378507801</v>
       </c>
       <c r="N31" t="n">
-        <v>1377.193354967363</v>
+        <v>1174.19240614461</v>
       </c>
       <c r="O31" t="n">
-        <v>1500.896730616548</v>
+        <v>1652.270227994447</v>
       </c>
       <c r="P31" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q31" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S31" t="n">
-        <v>1934.168663327547</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T31" t="n">
-        <v>1694.612168011072</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="U31" t="n">
-        <v>1414.476011244878</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="V31" t="n">
-        <v>1132.764543852907</v>
+        <v>1420.13082828211</v>
       </c>
       <c r="W31" t="n">
-        <v>857.9121400254198</v>
+        <v>1145.278424454623</v>
       </c>
       <c r="X31" t="n">
-        <v>615.3482434712249</v>
+        <v>902.7145279004282</v>
       </c>
       <c r="Y31" t="n">
-        <v>389.005475160967</v>
+        <v>875.1638874552568</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1146.38283257185</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C32" t="n">
-        <v>719.48210258515</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D32" t="n">
-        <v>719.48210258515</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E32" t="n">
-        <v>719.48210258515</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F32" t="n">
-        <v>719.48210258515</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1167726661212</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H32" t="n">
         <v>41.92209259235321</v>
@@ -6727,25 +6727,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S32" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T32" t="n">
-        <v>1824.428207667646</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U32" t="n">
-        <v>1566.23119686338</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V32" t="n">
-        <v>1566.23119686338</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W32" t="n">
-        <v>1566.23119686338</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X32" t="n">
-        <v>1566.23119686338</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.23119686338</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I33" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J33" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K33" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062476</v>
       </c>
       <c r="L33" t="n">
-        <v>486.3299477746344</v>
+        <v>509.7872536190463</v>
       </c>
       <c r="M33" t="n">
-        <v>725.7158104880056</v>
+        <v>749.1731163324174</v>
       </c>
       <c r="N33" t="n">
-        <v>973.7789094713428</v>
+        <v>997.2362153157546</v>
       </c>
       <c r="O33" t="n">
-        <v>1197.097465261194</v>
+        <v>1220.554771105606</v>
       </c>
       <c r="P33" t="n">
-        <v>1559.530945210204</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q33" t="n">
         <v>1669.131383560658</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>708.6804667964071</v>
+        <v>844.6051827274922</v>
       </c>
       <c r="C34" t="n">
-        <v>708.6804667964071</v>
+        <v>844.6051827274922</v>
       </c>
       <c r="D34" t="n">
-        <v>545.3636939231778</v>
+        <v>681.2884098542629</v>
       </c>
       <c r="E34" t="n">
-        <v>379.1554880760314</v>
+        <v>515.0802040071164</v>
       </c>
       <c r="F34" t="n">
-        <v>207.2937138505918</v>
+        <v>343.2184297816768</v>
       </c>
       <c r="G34" t="n">
-        <v>41.92209259235321</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H34" t="n">
         <v>41.92209259235321</v>
@@ -6858,52 +6858,52 @@
         <v>41.92209259235321</v>
       </c>
       <c r="J34" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K34" t="n">
-        <v>240.8213755078383</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L34" t="n">
-        <v>398.8701021339889</v>
+        <v>550.2435995118881</v>
       </c>
       <c r="M34" t="n">
-        <v>512.5410404728809</v>
+        <v>663.9145378507801</v>
       </c>
       <c r="N34" t="n">
-        <v>1022.818908766711</v>
+        <v>1174.19240614461</v>
       </c>
       <c r="O34" t="n">
-        <v>1500.896730616548</v>
+        <v>1652.270227994447</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q34" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S34" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T34" t="n">
-        <v>1934.168663327547</v>
+        <v>1870.075718811403</v>
       </c>
       <c r="U34" t="n">
-        <v>1654.032506561353</v>
+        <v>1870.075718811403</v>
       </c>
       <c r="V34" t="n">
-        <v>1372.321039169382</v>
+        <v>1588.364251419432</v>
       </c>
       <c r="W34" t="n">
-        <v>1367.753100372925</v>
+        <v>1313.511847591945</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.189203818731</v>
+        <v>1070.94795103775</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.8464355084727</v>
+        <v>844.6051827274922</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>961.4594849597441</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="C35" t="n">
-        <v>534.5587549730442</v>
+        <v>1040.038062807196</v>
       </c>
       <c r="D35" t="n">
-        <v>534.5587549730442</v>
+        <v>1040.038062807196</v>
       </c>
       <c r="E35" t="n">
-        <v>108.5818151209018</v>
+        <v>614.0611229550531</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5818151209018</v>
+        <v>188.9369411444533</v>
       </c>
       <c r="G35" t="n">
-        <v>41.92209259235321</v>
+        <v>188.9369411444533</v>
       </c>
       <c r="H35" t="n">
         <v>41.92209259235321</v>
@@ -6967,22 +6967,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.713764641373</v>
+        <v>1824.428207667646</v>
       </c>
       <c r="U35" t="n">
-        <v>1778.516753837107</v>
+        <v>1824.428207667646</v>
       </c>
       <c r="V35" t="n">
-        <v>1778.516753837107</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="W35" t="n">
-        <v>1778.516753837107</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="X35" t="n">
-        <v>1366.796755004854</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="Y35" t="n">
-        <v>961.4594849597441</v>
+        <v>1466.938792793895</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I36" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J36" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K36" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L36" t="n">
-        <v>486.3299477746344</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M36" t="n">
-        <v>725.7158104880056</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N36" t="n">
-        <v>973.7789094713428</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R36" t="n">
         <v>1815.413022142049</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.8946557134372</v>
+        <v>851.2061245903376</v>
       </c>
       <c r="C37" t="n">
-        <v>41.92209259235321</v>
+        <v>679.2335614692536</v>
       </c>
       <c r="D37" t="n">
-        <v>41.92209259235321</v>
+        <v>515.9167885960243</v>
       </c>
       <c r="E37" t="n">
-        <v>41.92209259235321</v>
+        <v>349.7085827488778</v>
       </c>
       <c r="F37" t="n">
-        <v>41.92209259235321</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92209259235321</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H37" t="n">
         <v>41.92209259235321</v>
@@ -7095,25 +7095,25 @@
         <v>41.92209259235321</v>
       </c>
       <c r="J37" t="n">
-        <v>82.84021611732985</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K37" t="n">
-        <v>162.8996588596175</v>
+        <v>240.8213755078383</v>
       </c>
       <c r="L37" t="n">
-        <v>270.2078741949412</v>
+        <v>724.518484434327</v>
       </c>
       <c r="M37" t="n">
-        <v>512.5410404728809</v>
+        <v>838.189422773219</v>
       </c>
       <c r="N37" t="n">
-        <v>1022.818908766711</v>
+        <v>1348.467291067049</v>
       </c>
       <c r="O37" t="n">
-        <v>1500.896730616548</v>
+        <v>1826.545112916886</v>
       </c>
       <c r="P37" t="n">
-        <v>1896.443943434684</v>
+        <v>1909.336121161714</v>
       </c>
       <c r="Q37" t="n">
         <v>2096.104629617661</v>
@@ -7122,25 +7122,25 @@
         <v>2088.874501954651</v>
       </c>
       <c r="S37" t="n">
-        <v>1934.168663327547</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="T37" t="n">
-        <v>1709.667317275608</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="U37" t="n">
-        <v>1429.531160509414</v>
+        <v>1840.499861076056</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.819693117443</v>
+        <v>1558.788393684085</v>
       </c>
       <c r="W37" t="n">
-        <v>872.9672892899557</v>
+        <v>1283.935989856598</v>
       </c>
       <c r="X37" t="n">
-        <v>630.4033927357608</v>
+        <v>1041.372093302403</v>
       </c>
       <c r="Y37" t="n">
-        <v>404.0606244255029</v>
+        <v>1041.372093302403</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>869.4116043219817</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="C38" t="n">
-        <v>869.4116043219817</v>
+        <v>1456.918342657234</v>
       </c>
       <c r="D38" t="n">
-        <v>869.4116043219817</v>
+        <v>1033.625721842234</v>
       </c>
       <c r="E38" t="n">
-        <v>869.4116043219817</v>
+        <v>607.6487819900918</v>
       </c>
       <c r="F38" t="n">
-        <v>444.2874225113819</v>
+        <v>182.524600179492</v>
       </c>
       <c r="G38" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H38" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I38" t="n">
-        <v>82.29775374785459</v>
+        <v>82.2977537478547</v>
       </c>
       <c r="J38" t="n">
-        <v>217.3564621562497</v>
+        <v>217.3564621562498</v>
       </c>
       <c r="K38" t="n">
-        <v>428.0194649169801</v>
+        <v>428.0194649169802</v>
       </c>
       <c r="L38" t="n">
-        <v>695.3620842405354</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M38" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306628</v>
       </c>
       <c r="N38" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O38" t="n">
         <v>1595.158288098558</v>
@@ -7198,28 +7198,28 @@
         <v>2009.271730617951</v>
       </c>
       <c r="R38" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.713764641372</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T38" t="n">
-        <v>2036.713764641372</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="U38" t="n">
-        <v>1778.516753837106</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="V38" t="n">
-        <v>1778.516753837106</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="W38" t="n">
-        <v>1686.468873199344</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="X38" t="n">
-        <v>1274.748874367092</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="Y38" t="n">
-        <v>869.4116043219817</v>
+        <v>1883.819072643934</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G39" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H39" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I39" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J39" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K39" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062476</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3299477746344</v>
+        <v>509.7872536190463</v>
       </c>
       <c r="M39" t="n">
-        <v>725.7158104880056</v>
+        <v>749.1731163324174</v>
       </c>
       <c r="N39" t="n">
-        <v>973.7789094713428</v>
+        <v>997.2362153157546</v>
       </c>
       <c r="O39" t="n">
-        <v>1488.89523962663</v>
+        <v>1220.554771105606</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.98644549511</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R39" t="n">
         <v>1815.413022142049</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.4196344338129</v>
+        <v>550.9414414510805</v>
       </c>
       <c r="C40" t="n">
-        <v>371.447071312729</v>
+        <v>414.3073072525103</v>
       </c>
       <c r="D40" t="n">
-        <v>208.1302984394997</v>
+        <v>250.990534379281</v>
       </c>
       <c r="E40" t="n">
-        <v>41.9220925923532</v>
+        <v>250.990534379281</v>
       </c>
       <c r="F40" t="n">
-        <v>41.9220925923532</v>
+        <v>250.990534379281</v>
       </c>
       <c r="G40" t="n">
-        <v>41.9220925923532</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H40" t="n">
-        <v>41.9220925923532</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I40" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J40" t="n">
-        <v>82.84021611732985</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K40" t="n">
-        <v>410.1822679736395</v>
+        <v>240.8213755078383</v>
       </c>
       <c r="L40" t="n">
-        <v>517.4904833089631</v>
+        <v>348.129590843162</v>
       </c>
       <c r="M40" t="n">
-        <v>631.1614216478551</v>
+        <v>866.915486673533</v>
       </c>
       <c r="N40" t="n">
-        <v>1141.439289941685</v>
+        <v>1377.193354967363</v>
       </c>
       <c r="O40" t="n">
-        <v>1619.517111791522</v>
+        <v>1855.2711768172</v>
       </c>
       <c r="P40" t="n">
-        <v>2015.064324609658</v>
+        <v>1938.062185062028</v>
       </c>
       <c r="Q40" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R40" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S40" t="n">
-        <v>1934.168663327546</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T40" t="n">
-        <v>1694.612168011072</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U40" t="n">
-        <v>1414.476011244878</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V40" t="n">
-        <v>1132.764543852906</v>
+        <v>1294.70051014302</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9121400254194</v>
+        <v>1019.848106315533</v>
       </c>
       <c r="X40" t="n">
-        <v>733.5856031458786</v>
+        <v>777.2842097613385</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.5856031458786</v>
+        <v>550.9414414510805</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>953.3311195004674</v>
+        <v>1625.622061839668</v>
       </c>
       <c r="C41" t="n">
-        <v>526.4303895137675</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D41" t="n">
-        <v>444.287422511382</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E41" t="n">
-        <v>444.287422511382</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F41" t="n">
-        <v>444.287422511382</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="G41" t="n">
         <v>41.92209259235322</v>
@@ -7438,25 +7438,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.713764641373</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="U41" t="n">
-        <v>1778.516753837107</v>
+        <v>1625.622061839668</v>
       </c>
       <c r="V41" t="n">
-        <v>1778.516753837107</v>
+        <v>1625.622061839668</v>
       </c>
       <c r="W41" t="n">
-        <v>1778.516753837107</v>
+        <v>1625.622061839668</v>
       </c>
       <c r="X41" t="n">
-        <v>1778.516753837107</v>
+        <v>1625.622061839668</v>
       </c>
       <c r="Y41" t="n">
-        <v>1373.179483791997</v>
+        <v>1625.622061839668</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>878.4820281168071</v>
+        <v>597.7904206411953</v>
       </c>
       <c r="C42" t="n">
-        <v>760.9761246343119</v>
+        <v>480.2845171587001</v>
       </c>
       <c r="D42" t="n">
-        <v>657.1361661495969</v>
+        <v>376.4445586739851</v>
       </c>
       <c r="E42" t="n">
-        <v>552.4342324225341</v>
+        <v>271.7426249469223</v>
       </c>
       <c r="F42" t="n">
-        <v>458.7884021054383</v>
+        <v>178.0967946298265</v>
       </c>
       <c r="G42" t="n">
-        <v>365.7906703065962</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H42" t="n">
-        <v>322.6137000679651</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I42" t="n">
-        <v>342.2387590489153</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J42" t="n">
-        <v>419.6209004016646</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K42" t="n">
-        <v>564.5794642374477</v>
+        <v>307.3451626062478</v>
       </c>
       <c r="L42" t="n">
-        <v>767.0215552502464</v>
+        <v>509.7872536190464</v>
       </c>
       <c r="M42" t="n">
-        <v>1006.407417963617</v>
+        <v>749.1731163324175</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.470516946955</v>
+        <v>997.2362153157547</v>
       </c>
       <c r="O42" t="n">
-        <v>1477.789072736806</v>
+        <v>1220.554771105607</v>
       </c>
       <c r="P42" t="n">
-        <v>1653.880278605287</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q42" t="n">
-        <v>2055.278491321175</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R42" t="n">
-        <v>2096.104629617661</v>
+        <v>1815.413022142049</v>
       </c>
       <c r="S42" t="n">
-        <v>2034.395861697996</v>
+        <v>1753.704254222385</v>
       </c>
       <c r="T42" t="n">
-        <v>1896.772508210087</v>
+        <v>1616.080900734475</v>
       </c>
       <c r="U42" t="n">
-        <v>1712.073788444431</v>
+        <v>1431.382180968819</v>
       </c>
       <c r="V42" t="n">
-        <v>1507.100649583697</v>
+        <v>1226.409042108085</v>
       </c>
       <c r="W42" t="n">
-        <v>1310.579272416915</v>
+        <v>1029.887664941303</v>
       </c>
       <c r="X42" t="n">
-        <v>1147.101926183577</v>
+        <v>866.4103187079656</v>
       </c>
       <c r="Y42" t="n">
-        <v>1007.40903753687</v>
+        <v>726.717430061258</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.570361484666</v>
+        <v>543.3088455381685</v>
       </c>
       <c r="C43" t="n">
-        <v>582.570361484666</v>
+        <v>543.3088455381685</v>
       </c>
       <c r="D43" t="n">
-        <v>582.570361484666</v>
+        <v>379.9920726649392</v>
       </c>
       <c r="E43" t="n">
-        <v>416.3621556375195</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3621556375195</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="G43" t="n">
-        <v>250.990534379281</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I43" t="n">
         <v>41.92209259235322</v>
       </c>
       <c r="J43" t="n">
-        <v>82.84021611732987</v>
+        <v>160.7619327655507</v>
       </c>
       <c r="K43" t="n">
-        <v>264.1492536103897</v>
+        <v>240.8213755078384</v>
       </c>
       <c r="L43" t="n">
-        <v>371.4574689457135</v>
+        <v>348.1295908431621</v>
       </c>
       <c r="M43" t="n">
-        <v>890.2433647760845</v>
+        <v>866.9154866735331</v>
       </c>
       <c r="N43" t="n">
-        <v>1400.521233069914</v>
+        <v>1377.193354967363</v>
       </c>
       <c r="O43" t="n">
-        <v>1500.896730616548</v>
+        <v>1813.652935189856</v>
       </c>
       <c r="P43" t="n">
         <v>1896.443943434684</v>
@@ -7593,28 +7593,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S43" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.168663327547</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U43" t="n">
-        <v>1798.206866280643</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V43" t="n">
-        <v>1516.495398888671</v>
+        <v>1294.700510143021</v>
       </c>
       <c r="W43" t="n">
-        <v>1241.642995061184</v>
+        <v>1019.848106315534</v>
       </c>
       <c r="X43" t="n">
-        <v>999.0790985069896</v>
+        <v>959.8175825604922</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.7363301967316</v>
+        <v>733.4748142502342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.13678060508</v>
+        <v>1743.216565056795</v>
       </c>
       <c r="C44" t="n">
-        <v>388.2360506183801</v>
+        <v>1316.315835070095</v>
       </c>
       <c r="D44" t="n">
-        <v>388.2360506183801</v>
+        <v>893.0232142550955</v>
       </c>
       <c r="E44" t="n">
-        <v>388.2360506183801</v>
+        <v>467.046274402953</v>
       </c>
       <c r="F44" t="n">
         <v>41.92209259235322</v>
@@ -7675,25 +7675,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T44" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U44" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V44" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W44" t="n">
-        <v>1640.32241494172</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X44" t="n">
-        <v>1640.32241494172</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="Y44" t="n">
-        <v>1234.98514489661</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>41.92209259235322</v>
       </c>
       <c r="I45" t="n">
-        <v>61.54715157330347</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J45" t="n">
-        <v>138.9292929260528</v>
+        <v>325.2715670065822</v>
       </c>
       <c r="K45" t="n">
-        <v>283.8878567618359</v>
+        <v>470.2301308423654</v>
       </c>
       <c r="L45" t="n">
-        <v>486.3299477746345</v>
+        <v>672.672221855164</v>
       </c>
       <c r="M45" t="n">
-        <v>725.7158104880057</v>
+        <v>912.0580845685353</v>
       </c>
       <c r="N45" t="n">
-        <v>973.7789094713429</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O45" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P45" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R45" t="n">
         <v>1815.413022142049</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.4880762207407</v>
+        <v>1089.721471704419</v>
       </c>
       <c r="C46" t="n">
-        <v>580.5155130996567</v>
+        <v>917.7489085833349</v>
       </c>
       <c r="D46" t="n">
-        <v>417.1987402264274</v>
+        <v>754.4321357101056</v>
       </c>
       <c r="E46" t="n">
-        <v>250.990534379281</v>
+        <v>588.2239298629592</v>
       </c>
       <c r="F46" t="n">
-        <v>250.990534379281</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G46" t="n">
         <v>250.990534379281</v>
@@ -7806,52 +7806,52 @@
         <v>41.92209259235322</v>
       </c>
       <c r="J46" t="n">
-        <v>137.2373615709704</v>
+        <v>82.84021611732987</v>
       </c>
       <c r="K46" t="n">
-        <v>464.5794134272801</v>
+        <v>410.1822679736396</v>
       </c>
       <c r="L46" t="n">
-        <v>948.2765223537688</v>
+        <v>893.8793769001282</v>
       </c>
       <c r="M46" t="n">
-        <v>1061.947460692661</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N46" t="n">
-        <v>1174.19240614461</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O46" t="n">
-        <v>1652.270227994447</v>
+        <v>1597.873082540807</v>
       </c>
       <c r="P46" t="n">
-        <v>2047.817440812584</v>
+        <v>1993.420295358943</v>
       </c>
       <c r="Q46" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.874501954652</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S46" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T46" t="n">
-        <v>1694.612168011073</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U46" t="n">
-        <v>1414.476011244878</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V46" t="n">
-        <v>1132.764543852907</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="W46" t="n">
-        <v>942.6540449328063</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="X46" t="n">
-        <v>942.6540449328063</v>
+        <v>1333.848080980797</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.6540449328063</v>
+        <v>1107.505312670539</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>11.687419793854</v>
       </c>
       <c r="K2" t="n">
-        <v>9.188120483615119</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L2" t="n">
         <v>5.341568553442613</v>
@@ -7996,7 +7996,7 @@
         <v>2.188868639101635</v>
       </c>
       <c r="P2" t="n">
-        <v>7.531191812490526</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q2" t="n">
         <v>13.562754156455</v>
@@ -8078,7 +8078,7 @@
         <v>0.424509749335602</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.477581017613941</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R3" t="n">
         <v>16.73234637554063</v>
@@ -8139,7 +8139,7 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K4" t="n">
-        <v>10.07631485409217</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L4" t="n">
         <v>7.985433933586291</v>
@@ -8461,22 +8461,22 @@
         <v>4.685892067245952</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01569155241409703</v>
+        <v>0.7570631261560621</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.488812484839848</v>
+        <v>2.230184058581813</v>
       </c>
       <c r="P8" t="n">
         <v>7.645127247921719</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.85544183273475</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R8" t="n">
-        <v>22.38892463924255</v>
+        <v>21.64755306550058</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.87911890286131</v>
+        <v>14.5905360695834</v>
       </c>
       <c r="K10" t="n">
-        <v>10.60115243821965</v>
+        <v>9.859780864477683</v>
       </c>
       <c r="L10" t="n">
-        <v>7.708344976923126</v>
+        <v>8.449716550665091</v>
       </c>
       <c r="M10" t="n">
-        <v>7.592549806828204</v>
+        <v>8.333921380570169</v>
       </c>
       <c r="N10" t="n">
-        <v>6.12227052874997</v>
+        <v>6.863642102491935</v>
       </c>
       <c r="O10" t="n">
-        <v>9.73049846576053</v>
+        <v>8.989126892018565</v>
       </c>
       <c r="P10" t="n">
-        <v>11.53202704083773</v>
+        <v>10.82060987411565</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.35725745110702</v>
+        <v>16.61588587736505</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,16 +8856,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>409.2070277691705</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>343.1724412511834</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>292.1531650290171</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>164.5302709455737</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>294.7452266317537</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9099,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>132.7265505063332</v>
+        <v>264.4636365560115</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>12.52297095801639</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>282.2222556737373</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>51.25304170790625</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>292.1531650290169</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>188.2245192732625</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>261.6989324527562</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>264.4636365560115</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>273.4573705525594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.28785607919397</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>176.4660358388389</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>409.2070277691707</v>
+        <v>218.5889255546358</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.5302709455736</v>
+        <v>188.2245192732624</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>51.25304170790551</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>409.2070277691705</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>190.8993970816297</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>294.7452266317531</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>282.8643690070171</v>
       </c>
       <c r="M31" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>23.56351323490019</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.2245192732623</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>51.25304170790594</v>
+        <v>282.8643690070171</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>294.7452266317531</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>129.9618464030785</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>139.8801208594633</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>294.7452266317531</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10998,10 +10998,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.08395576052976</v>
+        <v>110.8638946975299</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>294.7452266317526</v>
+        <v>164.5302709455734</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>102.2723179300729</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>339.4788713897566</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>164.5302709455734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>294.7452266317529</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.94661156933385</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>54.9466115693337</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08674335225111918</v>
+        <v>0.08674335225113589</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.90850907487276</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>22.06131104359654</v>
       </c>
       <c r="D8" t="n">
         <v>18.31832303310772</v>
@@ -23032,7 +23032,7 @@
         <v>20.97579887987904</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>20.13156841875178</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7134857014222388</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H11" t="n">
-        <v>71.48941360966944</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>58.79695632652505</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U11" t="n">
         <v>255.6150406962232</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>34.40052786147589</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.77333331655323</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>158.2645323972769</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3416766198384</v>
+        <v>202.1594169601207</v>
       </c>
       <c r="H14" t="n">
         <v>274.8783417406876</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>128.1499829983255</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>87.63421425327587</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.7294276491022</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>333.1219566693609</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>398.3416766198384</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T17" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U17" t="n">
-        <v>230.8806432550148</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>97.14343622514752</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H19" t="n">
-        <v>47.29722886323879</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I19" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>183.591740581951</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>341.0695936555021</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I22" t="n">
         <v>72.41228859728429</v>
@@ -24180,7 +24180,7 @@
         <v>153.1587802408334</v>
       </c>
       <c r="T22" t="n">
-        <v>160.0291913484879</v>
+        <v>31.88897401424205</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,16 +24208,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>270.9872500861372</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3416766198384</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>318.9673338325046</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>107.532890039223</v>
       </c>
       <c r="G25" t="n">
-        <v>100.1678503733907</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>87.82382213503826</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3416766198384</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>235.4551564291982</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7179050456562</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.4126026498839</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.588202916388</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6150406962232</v>
+        <v>72.361547619253</v>
       </c>
       <c r="V29" t="n">
-        <v>260.2448533917072</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>14.90459777189054</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>72.41228859728429</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>196.8042065864358</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>66.29069673335783</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H32" t="n">
-        <v>2.435608467657232</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>72.41228859728429</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T34" t="n">
-        <v>237.16093036331</v>
+        <v>13.39230866511534</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>267.5816203807204</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3485513165754</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8783417406876</v>
+        <v>129.3336416741085</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>72.41228859728429</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T37" t="n">
-        <v>14.90459777189045</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>31.44390072872307</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>259.145194108571</v>
       </c>
       <c r="H38" t="n">
         <v>274.8783417406876</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>301.3000343712723</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>34.98504463328857</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -25566,10 +25566,10 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>117.0549860779076</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>116.4185581849554</v>
       </c>
       <c r="D41" t="n">
-        <v>337.738157274488</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H41" t="n">
         <v>274.8783417406876</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.157826386379078</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T43" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>142.7326161220964</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.7080390711616</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>66.29069673335738</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>78.02212154672713</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.3416766198384</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T44" t="n">
         <v>210.1627014039893</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>170.6583064684858</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.157826386379078</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>83.89448585831212</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387242.7439855165</v>
+        <v>387242.7439855166</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387242.7439855164</v>
+        <v>387242.7439855165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387242.7439855165</v>
+        <v>387242.7439855166</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>387242.7439855164</v>
+        <v>387242.7439855165</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387242.7439855165</v>
+        <v>387242.7439855167</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387297.3434282963</v>
+        <v>387297.3434282964</v>
       </c>
       <c r="C2" t="n">
-        <v>387297.3434282963</v>
+        <v>387297.3434282964</v>
       </c>
       <c r="D2" t="n">
-        <v>387452.1540501755</v>
+        <v>387452.1540501756</v>
       </c>
       <c r="E2" t="n">
         <v>227379.0911483677</v>
@@ -26334,7 +26334,7 @@
         <v>227379.0911483677</v>
       </c>
       <c r="I2" t="n">
-        <v>227379.0911483678</v>
+        <v>227379.0911483677</v>
       </c>
       <c r="J2" t="n">
         <v>227379.0911483677</v>
@@ -26343,13 +26343,13 @@
         <v>227379.0911483677</v>
       </c>
       <c r="L2" t="n">
+        <v>227379.0911483677</v>
+      </c>
+      <c r="M2" t="n">
+        <v>227379.0911483676</v>
+      </c>
+      <c r="N2" t="n">
         <v>227379.0911483678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>227379.0911483677</v>
-      </c>
-      <c r="N2" t="n">
-        <v>227379.0911483677</v>
       </c>
       <c r="O2" t="n">
         <v>227379.0911483677</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>309599.3910919995</v>
       </c>
       <c r="C4" t="n">
-        <v>309599.3910919995</v>
+        <v>309599.3910919996</v>
       </c>
       <c r="D4" t="n">
         <v>309360.6547019857</v>
       </c>
       <c r="E4" t="n">
-        <v>25556.86547923385</v>
+        <v>25556.86547923386</v>
       </c>
       <c r="F4" t="n">
         <v>25556.86547923386</v>
       </c>
       <c r="G4" t="n">
-        <v>25556.86547923386</v>
+        <v>25556.86547923385</v>
       </c>
       <c r="H4" t="n">
+        <v>25556.86547923385</v>
+      </c>
+      <c r="I4" t="n">
         <v>25556.86547923384</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25556.86547923386</v>
       </c>
       <c r="J4" t="n">
         <v>25556.86547923384</v>
@@ -26456,7 +26456,7 @@
         <v>25556.86547923385</v>
       </c>
       <c r="O4" t="n">
-        <v>25556.86547923383</v>
+        <v>25556.86547923385</v>
       </c>
       <c r="P4" t="n">
         <v>25556.86547923385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7142.495451072617</v>
+        <v>-7164.16751581048</v>
       </c>
       <c r="C6" t="n">
-        <v>42937.38566976741</v>
+        <v>42915.71360502955</v>
       </c>
       <c r="D6" t="n">
-        <v>42147.90040183832</v>
+        <v>42126.80170977408</v>
       </c>
       <c r="E6" t="n">
-        <v>-344791.0440973098</v>
+        <v>-345405.0059853069</v>
       </c>
       <c r="F6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212283</v>
       </c>
       <c r="G6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212282</v>
       </c>
       <c r="H6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212283</v>
       </c>
       <c r="I6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212283</v>
       </c>
       <c r="J6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212282</v>
       </c>
       <c r="K6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212283</v>
       </c>
       <c r="L6" t="n">
-        <v>159177.7735362554</v>
+        <v>158563.8116482584</v>
       </c>
       <c r="M6" t="n">
-        <v>28960.7462410781</v>
+        <v>28346.78435308116</v>
       </c>
       <c r="N6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212284</v>
       </c>
       <c r="O6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212282</v>
       </c>
       <c r="P6" t="n">
-        <v>159365.4080092252</v>
+        <v>158751.4461212282</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>486.0562976935886</v>
       </c>
       <c r="F3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="G3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="H3" t="n">
         <v>486.0562976935888</v>
@@ -26798,7 +26798,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="F4" t="n">
         <v>524.0261574044151</v>
@@ -26807,7 +26807,7 @@
         <v>524.0261574044151</v>
       </c>
       <c r="H4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="I4" t="n">
         <v>524.0261574044151</v>
@@ -26825,7 +26825,7 @@
         <v>524.0261574044151</v>
       </c>
       <c r="N4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="O4" t="n">
         <v>524.0261574044152</v>
@@ -27020,7 +27020,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2847858306731</v>
+        <v>523.2847858306732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="M4" t="n">
-        <v>523.2847858306731</v>
+        <v>523.2847858306732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>92.99922442254206</v>
       </c>
       <c r="H9" t="n">
-        <v>51.74123918360299</v>
+        <v>50.99986760986102</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>78.39332586788025</v>
       </c>
       <c r="T9" t="n">
-        <v>139.2602259074094</v>
+        <v>140.0015974811513</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9130134852156</v>
+        <v>182.2600134030637</v>
       </c>
       <c r="V9" t="n">
         <v>202.1820358983844</v>
       </c>
       <c r="W9" t="n">
-        <v>194.556163395115</v>
+        <v>193.814791821373</v>
       </c>
       <c r="X9" t="n">
-        <v>161.1895726888518</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>137.5545881864986</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28013,19 +28013,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>169.5114659161312</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>160.942233570755</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>163.804752214933</v>
       </c>
       <c r="F10" t="n">
-        <v>169.4017849094432</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7574465809224</v>
+        <v>164.4988181546643</v>
       </c>
       <c r="H10" t="n">
         <v>141.5084962318651</v>
@@ -28064,13 +28064,13 @@
         <v>166.7679659678213</v>
       </c>
       <c r="T10" t="n">
-        <v>239.8445590196476</v>
+        <v>240.4975591017995</v>
       </c>
       <c r="U10" t="n">
         <v>277.3773904590235</v>
       </c>
       <c r="V10" t="n">
-        <v>278.1529811443094</v>
+        <v>278.2413526358994</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -31044,7 +31044,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H2" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I2" t="n">
         <v>8.05471345929122</v>
@@ -31068,7 +31068,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P2" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q2" t="n">
         <v>22.56192044814304</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H3" t="n">
         <v>1.079622901028888</v>
@@ -31150,7 +31150,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R3" t="n">
         <v>6.940573018603515</v>
@@ -31202,7 +31202,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I4" t="n">
         <v>2.818358950879063</v>
@@ -31229,13 +31229,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R4" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S4" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T4" t="n">
         <v>0.4004318944719343</v>
@@ -31615,10 +31615,10 @@
         <v>23.83815208606994</v>
       </c>
       <c r="N9" t="n">
-        <v>22.05444538026375</v>
+        <v>22.08439978728363</v>
       </c>
       <c r="O9" t="n">
-        <v>23.91326129596419</v>
+        <v>23.88330688894431</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -31995,31 +31995,31 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I14" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J14" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K14" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L14" t="n">
         <v>308.355092254396</v>
       </c>
       <c r="M14" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N14" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O14" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P14" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R14" t="n">
         <v>122.7426488844016</v>
@@ -32028,7 +32028,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T14" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U14" t="n">
         <v>0.1563196133285912</v>
@@ -32074,43 +32074,43 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I15" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J15" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K15" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L15" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M15" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N15" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O15" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P15" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q15" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R15" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S15" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T15" t="n">
         <v>4.214016392267999</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H16" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I16" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J16" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K16" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L16" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M16" t="n">
         <v>137.3945695267303</v>
@@ -32177,10 +32177,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R16" t="n">
-        <v>39.41040079331948</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S16" t="n">
         <v>15.2749167652231</v>
@@ -32189,7 +32189,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,31 +32232,31 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I17" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J17" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K17" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L17" t="n">
         <v>308.355092254396</v>
       </c>
       <c r="M17" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N17" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O17" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P17" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R17" t="n">
         <v>122.7426488844016</v>
@@ -32265,7 +32265,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T17" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U17" t="n">
         <v>0.1563196133285912</v>
@@ -32311,43 +32311,43 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I18" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J18" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K18" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L18" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M18" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N18" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O18" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P18" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q18" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R18" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S18" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T18" t="n">
         <v>4.214016392267999</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H19" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I19" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J19" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K19" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M19" t="n">
         <v>137.3945695267303</v>
@@ -32414,10 +32414,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R19" t="n">
-        <v>39.41040079331948</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S19" t="n">
         <v>15.2749167652231</v>
@@ -32426,7 +32426,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>20.01135300001795</v>
       </c>
       <c r="I44" t="n">
-        <v>75.33139866063152</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J44" t="n">
         <v>165.8428972718442</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="N8" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7114171667220877</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="N9" t="n">
+        <v>0.7413715737419651</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.7114171667220875</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.7413715737419651</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.7114171667220877</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7114171667220875</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.33143790401679</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K13" t="n">
         <v>330.6485372285956</v>
@@ -35576,16 +35576,16 @@
         <v>488.5829383095845</v>
       </c>
       <c r="M13" t="n">
-        <v>524.026157404415</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N13" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O13" t="n">
-        <v>444.5618327124298</v>
+        <v>482.9068907574112</v>
       </c>
       <c r="P13" t="n">
-        <v>83.62728105538237</v>
+        <v>375.7804460843995</v>
       </c>
       <c r="Q13" t="n">
         <v>48.77493818694694</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J14" t="n">
         <v>136.4229377862576</v>
@@ -35652,16 +35652,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L14" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M14" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N14" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O14" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P14" t="n">
         <v>243.4115856418699</v>
@@ -35670,7 +35670,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R14" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.82329189994973</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J15" t="n">
-        <v>78.16377914419115</v>
+        <v>78.16377914419117</v>
       </c>
       <c r="K15" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L15" t="n">
-        <v>204.4869606189884</v>
+        <v>369.0172315645622</v>
       </c>
       <c r="M15" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N15" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O15" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P15" t="n">
         <v>177.8699049176569</v>
       </c>
       <c r="Q15" t="n">
-        <v>405.4527401170601</v>
+        <v>110.7075134853065</v>
       </c>
       <c r="R15" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>120.0402425991894</v>
       </c>
       <c r="K16" t="n">
-        <v>80.86812398210867</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L16" t="n">
         <v>488.5829383095845</v>
@@ -35819,13 +35819,13 @@
         <v>113.3787327797469</v>
       </c>
       <c r="O16" t="n">
-        <v>482.9068907574112</v>
+        <v>101.3893914612464</v>
       </c>
       <c r="P16" t="n">
-        <v>216.3538315617156</v>
+        <v>348.0909176113939</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.77493818694694</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J17" t="n">
         <v>136.4229377862576</v>
@@ -35889,16 +35889,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L17" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M17" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N17" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O17" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P17" t="n">
         <v>243.4115856418699</v>
@@ -35907,7 +35907,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R17" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>32.34626285796612</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J18" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K18" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L18" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M18" t="n">
-        <v>524.0261574044151</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N18" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O18" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P18" t="n">
         <v>177.8699049176569</v>
@@ -35986,7 +35986,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R18" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>120.0402425991894</v>
       </c>
       <c r="K19" t="n">
-        <v>80.86812398210867</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L19" t="n">
-        <v>159.6451784102534</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M19" t="n">
         <v>114.8191296352445</v>
       </c>
       <c r="N19" t="n">
-        <v>515.4321901957875</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O19" t="n">
-        <v>482.9068907574112</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P19" t="n">
-        <v>399.5426392102386</v>
+        <v>375.7804460843993</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J21" t="n">
         <v>78.16377914419117</v>
@@ -36205,7 +36205,7 @@
         <v>146.4227917533163</v>
       </c>
       <c r="L21" t="n">
-        <v>392.711479892251</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M21" t="n">
         <v>241.8039017306779</v>
@@ -36220,7 +36220,7 @@
         <v>177.8699049176569</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.7075134853065</v>
+        <v>275.2377844308801</v>
       </c>
       <c r="R21" t="n">
         <v>147.7592308902942</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.33143790401681</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K22" t="n">
         <v>330.6485372285956</v>
       </c>
       <c r="L22" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M22" t="n">
-        <v>376.5180620880007</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="N22" t="n">
-        <v>515.4321901957875</v>
+        <v>377.8423693357583</v>
       </c>
       <c r="O22" t="n">
         <v>101.3893914612464</v>
       </c>
       <c r="P22" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q22" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J24" t="n">
         <v>78.16377914419117</v>
@@ -36448,7 +36448,7 @@
         <v>241.8039017306779</v>
       </c>
       <c r="N24" t="n">
-        <v>524.0261574044151</v>
+        <v>250.5687868518557</v>
       </c>
       <c r="O24" t="n">
         <v>225.5742987776279</v>
@@ -36457,10 +36457,10 @@
         <v>177.8699049176569</v>
       </c>
       <c r="Q24" t="n">
-        <v>131.9953695645005</v>
+        <v>275.2377844308801</v>
       </c>
       <c r="R24" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K25" t="n">
-        <v>257.3341598209476</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L25" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M25" t="n">
-        <v>524.0261574044151</v>
+        <v>333.4080551898803</v>
       </c>
       <c r="N25" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O25" t="n">
-        <v>101.3893914612464</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P25" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q25" t="n">
         <v>48.77493818694695</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.51754022763846</v>
+        <v>19.82329189994974</v>
       </c>
       <c r="J27" t="n">
-        <v>242.6940500897648</v>
+        <v>266.3882984174536</v>
       </c>
       <c r="K27" t="n">
         <v>146.4227917533163</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K28" t="n">
-        <v>132.1211656900142</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L28" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M28" t="n">
-        <v>114.8191296352445</v>
+        <v>524.026157404415</v>
       </c>
       <c r="N28" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O28" t="n">
-        <v>482.9068907574113</v>
+        <v>292.2887885428761</v>
       </c>
       <c r="P28" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J30" t="n">
-        <v>78.16377914419117</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K30" t="n">
         <v>146.4227917533163</v>
@@ -36928,13 +36928,13 @@
         <v>225.5742987776279</v>
       </c>
       <c r="P30" t="n">
-        <v>472.61513154941</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R30" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K31" t="n">
         <v>80.8681239821087</v>
       </c>
       <c r="L31" t="n">
-        <v>108.3921367023472</v>
+        <v>391.2565057093643</v>
       </c>
       <c r="M31" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N31" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O31" t="n">
-        <v>124.9529046961466</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P31" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J33" t="n">
         <v>78.16377914419117</v>
@@ -37165,10 +37165,10 @@
         <v>225.5742987776279</v>
       </c>
       <c r="P33" t="n">
-        <v>366.0944241909192</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.7075134853065</v>
+        <v>275.2377844308801</v>
       </c>
       <c r="R33" t="n">
         <v>147.7592308902942</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K34" t="n">
         <v>80.8681239821087</v>
       </c>
       <c r="L34" t="n">
-        <v>159.6451784102531</v>
+        <v>391.2565057093643</v>
       </c>
       <c r="M34" t="n">
         <v>114.8191296352445</v>
@@ -37247,7 +37247,7 @@
         <v>399.5426392102386</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J36" t="n">
-        <v>78.16377914419117</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K36" t="n">
         <v>146.4227917533163</v>
@@ -37399,7 +37399,7 @@
         <v>250.5687868518557</v>
       </c>
       <c r="O36" t="n">
-        <v>520.319525409381</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P36" t="n">
         <v>177.8699049176569</v>
@@ -37408,7 +37408,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R36" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.33143790401681</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K37" t="n">
         <v>80.8681239821087</v>
       </c>
       <c r="L37" t="n">
-        <v>108.3921367023472</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M37" t="n">
-        <v>244.780976038323</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N37" t="n">
         <v>515.4321901957875</v>
@@ -37481,10 +37481,10 @@
         <v>482.9068907574113</v>
       </c>
       <c r="P37" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q37" t="n">
-        <v>201.6774607908854</v>
+        <v>188.6550590464103</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J39" t="n">
         <v>78.16377914419117</v>
@@ -37636,16 +37636,16 @@
         <v>250.5687868518557</v>
       </c>
       <c r="O39" t="n">
-        <v>520.319525409381</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P39" t="n">
         <v>177.8699049176569</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7075134853065</v>
+        <v>275.2377844308801</v>
       </c>
       <c r="R39" t="n">
-        <v>41.23852353180345</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.33143790401681</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K40" t="n">
-        <v>330.6485372285956</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L40" t="n">
         <v>108.3921367023472</v>
       </c>
       <c r="M40" t="n">
-        <v>114.8191296352445</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="N40" t="n">
         <v>515.4321901957875</v>
@@ -37718,10 +37718,10 @@
         <v>482.9068907574113</v>
       </c>
       <c r="P40" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.85889394747672</v>
+        <v>159.6388328844768</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J42" t="n">
         <v>78.1637791441912</v>
@@ -37879,10 +37879,10 @@
         <v>177.869904917657</v>
       </c>
       <c r="Q42" t="n">
-        <v>405.4527401170592</v>
+        <v>275.2377844308799</v>
       </c>
       <c r="R42" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.33143790401682</v>
+        <v>120.0402425991894</v>
       </c>
       <c r="K43" t="n">
-        <v>183.1404419121817</v>
+        <v>80.86812398210873</v>
       </c>
       <c r="L43" t="n">
         <v>108.3921367023472</v>
@@ -37952,10 +37952,10 @@
         <v>515.4321901957875</v>
       </c>
       <c r="O43" t="n">
-        <v>101.3893914612464</v>
+        <v>440.8682628510031</v>
       </c>
       <c r="P43" t="n">
-        <v>399.5426392102386</v>
+        <v>83.62728105538243</v>
       </c>
       <c r="Q43" t="n">
         <v>201.6774607908854</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.78349611666801</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J44" t="n">
         <v>136.4229377862577</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J45" t="n">
-        <v>78.1637791441912</v>
+        <v>242.6940500897646</v>
       </c>
       <c r="K45" t="n">
         <v>146.4227917533163</v>
@@ -38110,7 +38110,7 @@
         <v>250.5687868518558</v>
       </c>
       <c r="O45" t="n">
-        <v>520.3195254093808</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P45" t="n">
         <v>177.869904917657</v>
@@ -38119,7 +38119,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R45" t="n">
-        <v>41.23852353180347</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>96.27804947335068</v>
+        <v>41.33143790401682</v>
       </c>
       <c r="K46" t="n">
         <v>330.6485372285957</v>
@@ -38195,7 +38195,7 @@
         <v>399.5426392102386</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.77493818694697</v>
+        <v>103.7215497562807</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
